--- a/biology/Histoire de la zoologie et de la botanique/John_Kunkel_Small/John_Kunkel_Small.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Kunkel_Small/John_Kunkel_Small.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Kunkel Small est un botaniste américain, né le 31 janvier 1869 à Harrisburg et mort le 20 janvier 1938.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George H. et de Catherine K. Small. Il obtient son Bachelor of Arts au Franklin et Marshall College en 1892. Il obtient son doctorat à l’université Columbia en 1895. Il se marie l’année suivante a Elizabeth Wheeler dont il aura trois enfants.
 De 1895 à 1899, il est conservateur de l’herbier de l’université Columbia, de 1898 à 1906, conservateur de l’herbier du Jardin botanique de New York, conservateur-chef de 1906 à 1932 et enfin, à partir de 1932, conservateur et chef de la recherche associé. Il obtient un Doctorat of Sciences en 1912.
